--- a/tests/testthat/_snaps/xlsx_export/Table_List.xlsx
+++ b/tests/testthat/_snaps/xlsx_export/Table_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">A table with a caption</t>
   </si>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">none</t>
   </si>
   <si>
+    <t xml:space="preserve">This is a footnote.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sums and a different color</t>
   </si>
   <si>
@@ -108,7 +111,7 @@
     <t xml:space="preserve">27</t>
   </si>
   <si>
-    <t xml:space="preserve">A different color than default</t>
+    <t xml:space="preserve">A different color than default with two footnotes in cells</t>
   </si>
   <si>
     <t xml:space="preserve">eye_color</t>
@@ -117,18 +120,24 @@
     <t xml:space="preserve">gender</t>
   </si>
   <si>
+    <t xml:space="preserve">black (a)</t>
+  </si>
+  <si>
     <t xml:space="preserve">black</t>
   </si>
   <si>
     <t xml:space="preserve">feminine</t>
   </si>
   <si>
+    <t xml:space="preserve">masculine (b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">masculine</t>
   </si>
   <si>
-    <t xml:space="preserve">blue</t>
-  </si>
-  <si>
     <t xml:space="preserve">brown</t>
   </si>
   <si>
@@ -141,10 +150,28 @@
     <t xml:space="preserve">yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">(a) Some remark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(b) Some comment.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A highlighted cell</t>
   </si>
   <si>
-    <t xml:space="preserve">A masked table</t>
+    <t xml:space="preserve">female (a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) Some comment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A masked table with footnotes in header cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">species (a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coruscant (b)</t>
   </si>
   <si>
     <t xml:space="preserve">1-5</t>
@@ -158,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -183,6 +210,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
     </font>
   </fonts>
   <fills count="3">
@@ -311,6 +343,20 @@
       <right style="none">
         <color rgb="FF000000"/>
       </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thick">
         <color rgb="FFFFA500"/>
       </top>
@@ -381,20 +427,6 @@
       <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FFFFDB99"/>
       </top>
@@ -406,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -444,13 +476,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,13 +491,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -474,10 +506,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -487,6 +519,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2000,6 +2035,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" ht="27" customHeight="1">
+      <c r="A26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A5"/>
@@ -2031,616 +2076,616 @@
     <col min="7" max="7" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1">
+    <row r="1" ht="39.2" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" ht="27" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>19</v>
+      <c r="G3" s="25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="27" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="27" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1">
+      <c r="A13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="27" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="27" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="27" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="27" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" ht="27" customHeight="1">
+      <c r="A19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="27" customHeight="1">
+      <c r="A20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1">
+      <c r="A21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="27" customHeight="1">
+      <c r="A23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1">
+      <c r="A25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1">
+      <c r="A26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1">
+      <c r="A27" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1">
+      <c r="A28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="27" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="27" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="27" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="27" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="27" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="27" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="27" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="27" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="27" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="27" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" ht="27" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" ht="27" customHeight="1">
-      <c r="A17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="26" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" ht="27" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" ht="27" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="27" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" ht="27" customHeight="1">
-      <c r="A22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" ht="27" customHeight="1">
-      <c r="A23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" ht="27" customHeight="1">
-      <c r="A26" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" ht="27" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="23" t="s">
+      <c r="D28" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="F28" s="24" t="s">
         <v>28</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2677,456 +2722,478 @@
   <sheetData>
     <row r="1" ht="39.2" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" ht="27" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>19</v>
+      <c r="G3" s="25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>20</v>
+      <c r="A4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21" t="n">
+      <c r="A5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="26" t="s">
+      <c r="E5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21" t="n">
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26" t="s">
+      <c r="G11" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="27" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1">
+      <c r="A13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="27" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="27" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" ht="27" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="27" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="27" customHeight="1">
-      <c r="A7" s="16" t="s">
+    <row r="19" ht="27" customHeight="1">
+      <c r="A19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="27" customHeight="1">
+      <c r="A20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="21" t="n">
+      <c r="C20" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1">
+      <c r="A21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="27" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" ht="27" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="27" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="27" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" ht="27" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="27" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" ht="27" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" ht="27" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" ht="27" customHeight="1">
-      <c r="A17" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" ht="27" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" ht="27" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="27" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>23</v>
-      </c>
+      <c r="G21" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" ht="27" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3159,9 +3226,9 @@
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1">
+    <row r="1" ht="39.2" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1">
@@ -3192,16 +3259,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1">
@@ -3209,19 +3276,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1">
@@ -3232,36 +3299,36 @@
         <v>16</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1">
@@ -3272,16 +3339,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1">
@@ -3292,16 +3359,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1">
@@ -3312,16 +3379,16 @@
         <v>16</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1">
@@ -3332,16 +3399,16 @@
         <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1">
@@ -3352,16 +3419,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1">
@@ -3372,16 +3439,16 @@
         <v>15</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1">
@@ -3392,16 +3459,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1">
@@ -3412,16 +3479,16 @@
         <v>17</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1">
@@ -3432,16 +3499,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1">
@@ -3452,16 +3519,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="F16" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1">
@@ -3472,16 +3539,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1">
@@ -3492,16 +3559,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1">
@@ -3512,16 +3579,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1">
@@ -3532,16 +3599,16 @@
         <v>15</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1">
@@ -3552,16 +3619,16 @@
         <v>16</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1">
@@ -3572,16 +3639,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1">
@@ -3592,16 +3659,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1">
@@ -3612,16 +3679,16 @@
         <v>15</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1">
@@ -3632,16 +3699,16 @@
         <v>16</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1">
@@ -3652,35 +3719,45 @@
         <v>17</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1">
+      <c r="A27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="23" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>27</v>
       </c>
+      <c r="F27" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1">
+      <c r="A28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3714,7 +3791,7 @@
   <sheetData>
     <row r="1" ht="39.2" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1">
@@ -3729,21 +3806,21 @@
     </row>
     <row r="3" ht="27" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3755,16 +3832,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1">
@@ -3772,19 +3849,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1">
@@ -3792,19 +3869,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1">
@@ -3815,16 +3892,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1">
@@ -3832,19 +3909,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1">
@@ -3852,19 +3929,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1">
@@ -3875,16 +3952,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1">
@@ -3892,19 +3969,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1">
@@ -3912,19 +3989,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1">
@@ -3935,16 +4012,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1">
@@ -3952,19 +4029,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1">
@@ -3972,19 +4049,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1">
@@ -3995,16 +4072,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1">
@@ -4012,19 +4089,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1">
@@ -4032,19 +4109,19 @@
         <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1">
@@ -4055,16 +4132,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1">
@@ -4072,19 +4149,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1">
@@ -4092,20 +4169,40 @@
         <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" ht="27" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4155,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -4169,8 +4266,8 @@
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>19</v>
+      <c r="G2" s="31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1">
@@ -4178,22 +4275,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1">
@@ -4201,22 +4298,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1">
@@ -4224,22 +4321,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1">
@@ -4247,22 +4344,22 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1">
@@ -4270,22 +4367,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1">
@@ -4293,22 +4390,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1">
@@ -4316,22 +4413,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1">
@@ -4339,22 +4436,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1">
@@ -4362,22 +4459,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1">
@@ -4385,22 +4482,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1">
@@ -4408,22 +4505,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>22</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1">
@@ -4431,22 +4528,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1">
@@ -4454,22 +4551,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1">
@@ -4477,22 +4574,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1">
@@ -4500,22 +4597,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1">
@@ -4523,22 +4620,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1">
@@ -4546,22 +4643,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1">
@@ -4569,22 +4666,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1">
@@ -4592,22 +4689,22 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1">
@@ -4615,22 +4712,22 @@
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>43</v>
+        <v>25</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1">
@@ -4638,22 +4735,22 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>25</v>
+      <c r="G23" s="33" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1">
@@ -4661,22 +4758,22 @@
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1">
@@ -4684,22 +4781,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1">
@@ -4707,22 +4804,22 @@
         <v>10</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="33" t="s">
         <v>22</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1">
@@ -4730,22 +4827,22 @@
         <v>11</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="27" customHeight="1">
@@ -4753,22 +4850,22 @@
         <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="27" customHeight="1">
@@ -4776,22 +4873,22 @@
         <v>11</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="27" customHeight="1">
@@ -4799,22 +4896,22 @@
         <v>11</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1">
@@ -4822,22 +4919,22 @@
         <v>11</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1">
@@ -4845,22 +4942,22 @@
         <v>11</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1">
@@ -4868,22 +4965,22 @@
         <v>12</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="27" customHeight="1">
@@ -4891,22 +4988,22 @@
         <v>12</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="27" customHeight="1">
@@ -4914,22 +5011,22 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="27" customHeight="1">
@@ -4937,22 +5034,22 @@
         <v>12</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="27" customHeight="1">
@@ -4960,22 +5057,22 @@
         <v>12</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="27" customHeight="1">
@@ -4983,43 +5080,43 @@
         <v>12</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="27" customHeight="1">
+      <c r="A39" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="23" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="F39" s="24" t="s">
         <v>28</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/_snaps/xlsx_export/Table_List.xlsx
+++ b/tests/testthat/_snaps/xlsx_export/Table_List.xlsx
@@ -185,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -210,11 +210,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
     </font>
   </fonts>
   <fills count="3">
@@ -476,7 +471,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
